--- a/South Korea/Nelson-Siegel-Svensson/Newton/Tables/South Korea.xlsx
+++ b/South Korea/Nelson-Siegel-Svensson/Newton/Tables/South Korea.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,10 +17,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -38,12 +45,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -56,14 +78,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -428,7 +453,7 @@
   </sheetPr>
   <dimension ref="A1:CX25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1498,7 +1523,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>[ 2.84551607e-02 -2.02992494e-02  2.01402368e-03 -9.42463397e-04
+          <t>[ 2.84551607e-02 -2.02992494e-02  2.01402368e-03 -9.42463396e-04
   1.00005167e+00  4.99999935e+00]</t>
         </is>
       </c>
@@ -1522,19 +1547,19 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>[ 2.85624279e-02 -2.07990996e-02  1.91238602e-03 -7.09782264e-04
+          <t>[ 2.85624279e-02 -2.07990996e-02  1.91238602e-03 -7.09782263e-04
   1.00005425e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>[ 2.84043519e-02 -2.09493246e-02  1.85537449e-03 -7.03507557e-04
+          <t>[ 2.84043519e-02 -2.09493246e-02  1.85537449e-03 -7.03507556e-04
   1.00005551e+00  4.99999934e+00]</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>[ 2.85817307e-02 -2.10011658e-02  1.87129821e-03 -6.24269885e-04
+          <t>[ 2.85817307e-02 -2.10011658e-02  1.87129820e-03 -6.24269885e-04
   1.00005529e+00  4.99999934e+00]</t>
         </is>
       </c>
@@ -1558,7 +1583,7 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>[ 2.86581823e-02 -2.13396152e-02  1.81623616e-03 -4.67432224e-04
+          <t>[ 2.86581823e-02 -2.13396152e-02  1.81623616e-03 -4.67432223e-04
   1.00005679e+00  4.99999934e+00]</t>
         </is>
       </c>
@@ -1594,7 +1619,7 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>[ 2.87511696e-02 -2.17104652e-02  1.77446163e-03 -2.95111200e-04
+          <t>[ 2.87511696e-02 -2.17104652e-02  1.77446163e-03 -2.95111199e-04
   1.00005807e+00  4.99999934e+00]</t>
         </is>
       </c>
@@ -1702,13 +1727,13 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>[ 2.88454650e-02 -2.22584802e-02  1.79478819e-03 -6.83618969e-05
+          <t>[ 2.88454650e-02 -2.22584802e-02  1.79478819e-03 -6.83618970e-05
   1.00005826e+00  4.99999934e+00]</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>[ 2.88261139e-02 -2.22836099e-02  1.79500188e-03 -6.62853240e-05
+          <t>[ 2.88261139e-02 -2.22836099e-02  1.79500188e-03 -6.62853241e-05
   1.00005827e+00  4.99999934e+00]</t>
         </is>
       </c>
@@ -1720,19 +1745,19 @@
       </c>
       <c r="BK3" t="inlineStr">
         <is>
-          <t>[ 2.88307795e-02 -2.23157362e-02  1.80618463e-03 -5.48450722e-05
+          <t>[ 2.88307795e-02 -2.23157362e-02  1.80618463e-03 -5.48450723e-05
   1.00005807e+00  4.99999934e+00]</t>
         </is>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>[ 2.88602448e-02 -2.23209914e-02  1.81834732e-03 -4.43491408e-05
+          <t>[ 2.88602448e-02 -2.23209914e-02  1.81834732e-03 -4.43491409e-05
   1.00005783e+00  4.99999934e+00]</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>[ 2.88394642e-02 -2.23398239e-02  1.81819491e-03 -4.49833746e-05
+          <t>[ 2.88394642e-02 -2.23398239e-02  1.81819491e-03 -4.49833747e-05
   1.00005785e+00  4.99999934e+00]</t>
         </is>
       </c>
@@ -1756,109 +1781,109 @@
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>[ 2.88449127e-02 -2.23892166e-02  1.84420528e-03 -2.93893014e-05
+          <t>[ 2.88449127e-02 -2.23892166e-02  1.84420528e-03 -2.93893015e-05
   1.00005735e+00  4.99999934e+00]</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>[ 2.88642768e-02 -2.23914457e-02  1.85392066e-03 -2.32012585e-05
+          <t>[ 2.88642768e-02 -2.23914457e-02  1.85392066e-03 -2.32012586e-05
   1.00005715e+00  4.99999934e+00]</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>[ 2.88475952e-02 -2.24105670e-02  1.85858856e-03 -2.30255632e-05
+          <t>[ 2.88475952e-02 -2.24105670e-02  1.85858856e-03 -2.30255633e-05
   1.00005707e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
         <is>
-          <t>[ 2.88669417e-02 -2.24118840e-02  1.86854052e-03 -1.72089868e-05
+          <t>[ 2.88669417e-02 -2.24118840e-02  1.86854052e-03 -1.72089869e-05
   1.00005687e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>[ 2.88531193e-02 -2.24262603e-02  1.87244770e-03 -1.75973920e-05
+          <t>[ 2.88531193e-02 -2.24262603e-02  1.87244770e-03 -1.75973921e-05
   1.00005680e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>[ 2.88697208e-02 -2.24296507e-02  1.88338759e-03 -1.21727419e-05
+          <t>[ 2.88697208e-02 -2.24296507e-02  1.88338759e-03 -1.21727420e-05
   1.00005657e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>[ 2.88539381e-02 -2.24437877e-02  1.88707916e-03 -1.33142915e-05
+          <t>[ 2.88539381e-02 -2.24437877e-02  1.88707916e-03 -1.33142916e-05
   1.00005651e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>[ 2.88721231e-02 -2.24457762e-02  1.89858930e-03 -7.91853573e-06
+          <t>[ 2.88721231e-02 -2.24457762e-02  1.89858930e-03 -7.91853579e-06
   1.00005627e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>[ 2.88542153e-02 -2.24598503e-02  1.90199051e-03 -9.79732743e-06
+          <t>[ 2.88542153e-02 -2.24598503e-02  1.90199051e-03 -9.79732750e-06
   1.00005621e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>[ 2.88702220e-02 -2.24603423e-02  1.91167067e-03 -5.42987613e-06
+          <t>[ 2.88702220e-02 -2.24603423e-02  1.91167067e-03 -5.42987618e-06
   1.00005600e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>[ 2.88580438e-02 -2.24718100e-02  1.91651861e-03 -6.42754328e-06
+          <t>[ 2.88580438e-02 -2.24718100e-02  1.91651861e-03 -6.42754331e-06
   1.00005591e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>[ 2.88716724e-02 -2.24740447e-02  1.92730097e-03 -2.45927528e-06
+          <t>[ 2.88716724e-02 -2.24740447e-02  1.92730097e-03 -2.45927533e-06
   1.00005569e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
         <is>
-          <t>[ 2.88578802e-02 -2.24854577e-02  1.93191701e-03 -4.01841371e-06
+          <t>[ 2.88578802e-02 -2.24854577e-02  1.93191701e-03 -4.01841376e-06
   1.00005560e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>[ 2.88728946e-02 -2.24866421e-02  1.94313633e-03 -3.11498185e-09
+          <t>[ 2.88728946e-02 -2.24866421e-02  1.94313633e-03 -3.11504814e-09
   1.00005536e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>[ 2.88573426e-02 -2.24981299e-02  1.94746271e-03 -2.12039223e-06
+          <t>[ 2.88573426e-02 -2.24981299e-02  1.94746271e-03 -2.12039228e-06
   1.00005528e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>[ 2.88739406e-02 -2.24982695e-02  1.95914099e-03  2.01083539e-06
+          <t>[ 2.88739406e-02 -2.24982695e-02  1.95914099e-03  2.01083536e-06
   1.00005504e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>[ 2.88599567e-02 -2.25076210e-02  1.96232275e-03 -1.33744754e-07
+          <t>[ 2.88599567e-02 -2.25076210e-02  1.96232275e-03 -1.33744789e-07
   1.00005498e+00  4.99999935e+00]</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>[ 2.88739836e-02 -2.25096277e-02  1.97548337e-03  3.51167349e-06
+          <t>[ 2.88739836e-02 -2.25096277e-02  1.97548337e-03  3.51167343e-06
   1.00005470e+00  4.99999935e+00]</t>
         </is>
       </c>
@@ -2616,31 +2641,31 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>[ 3.37302564e-02 -1.79335306e-02  4.00569140e-03 -1.61281385e-04
+          <t>[ 3.37302564e-02 -1.79335306e-02  4.00569140e-03 -1.61281384e-04
   1.00004283e+00  4.99999974e+00]</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>[ 3.40405668e-02 -1.79864250e-02  4.06614279e-03 -3.85938213e-05
+          <t>[ 3.40405668e-02 -1.79864250e-02  4.06614279e-03 -3.85938212e-05
   1.00004222e+00  4.99999974e+00]</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>[ 3.38379323e-02 -1.81762772e-02  4.01456231e-03 -3.27411449e-05
+          <t>[ 3.38379323e-02 -1.81762772e-02  4.01456231e-03 -3.27411448e-05
   1.00004342e+00  4.99999974e+00]</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>[ 3.40562927e-02 -1.82429558e-02  4.05958188e-03  6.45249940e-05
+          <t>[ 3.40562927e-02 -1.82429558e-02  4.05958188e-03  6.45249942e-05
   1.00004303e+00  4.99999974e+00]</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>[ 3.38902240e-02 -1.84333789e-02  4.01999860e-03  8.22695549e-05
+          <t>[ 3.38902240e-02 -1.84333789e-02  4.01999860e-03  8.22695550e-05
   1.00004408e+00  4.99999974e+00]</t>
         </is>
       </c>
@@ -2694,7 +2719,7 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>[ 3.42297158e-02 -1.91645043e-02  4.16969256e-03  4.64049356e-04
+          <t>[ 3.42297158e-02 -1.91645043e-02  4.16969256e-03  4.64049355e-04
   1.00004395e+00  4.99999973e+00]</t>
         </is>
       </c>
@@ -2796,13 +2821,13 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>[ 3.42453548e-02 -1.99419863e-02  4.55350612e-03  7.30568937e-04
+          <t>[ 3.42453548e-02 -1.99419863e-02  4.55350612e-03  7.30568938e-04
   1.00004008e+00  4.99999966e+00]</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>[ 3.43129308e-02 -1.99473216e-02  4.59697051e-03  7.52332828e-04
+          <t>[ 3.43129308e-02 -1.99473216e-02  4.59697051e-03  7.52332829e-04
   1.00003942e+00  4.99999966e+00]</t>
         </is>
       </c>
@@ -2862,13 +2887,13 @@
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>[ 3.42984814e-02 -2.01712043e-02  4.87762656e-03  8.07867016e-04
+          <t>[ 3.42984814e-02 -2.01712043e-02  4.87762655e-03  8.07867016e-04
   1.00003559e+00  4.99999961e+00]</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>[ 3.42460151e-02 -2.02119622e-02  4.90357704e-03  8.02822508e-04
+          <t>[ 3.42460151e-02 -2.02119622e-02  4.90357703e-03  8.02822508e-04
   1.00003527e+00  4.99999960e+00]</t>
         </is>
       </c>
@@ -2922,7 +2947,7 @@
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>[ 3.42797707e-02 -2.03319660e-02  5.17479296e-03  8.36673750e-04
+          <t>[ 3.42797707e-02 -2.03319660e-02  5.17479296e-03  8.36673751e-04
   1.00003132e+00  4.99999955e+00]</t>
         </is>
       </c>
@@ -2982,13 +3007,13 @@
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>[ 3.42527411e-02 -2.04594010e-02  5.47145271e-03  8.50090629e-04
+          <t>[ 3.42527411e-02 -2.04594010e-02  5.47145271e-03  8.50090628e-04
   1.00002699e+00  4.99999950e+00]</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>[ 3.42024293e-02 -2.04901902e-02  5.49825886e-03  8.41966758e-04
+          <t>[ 3.42024293e-02 -2.04901902e-02  5.49825885e-03  8.41966758e-04
   1.00002665e+00  4.99999949e+00]</t>
         </is>
       </c>
@@ -3012,7 +3037,7 @@
       </c>
       <c r="CM5" t="inlineStr">
         <is>
-          <t>[ 3.41978852e-02 -2.05307975e-02  5.61299735e-03  8.45948296e-04
+          <t>[ 3.41978852e-02 -2.05307975e-02  5.61299734e-03  8.45948296e-04
   1.00002496e+00  4.99999947e+00]</t>
         </is>
       </c>
@@ -3030,7 +3055,7 @@
       </c>
       <c r="CP5" t="inlineStr">
         <is>
-          <t>[ 3.42358250e-02 -2.05470556e-02  5.71246994e-03  8.56789983e-04
+          <t>[ 3.42358250e-02 -2.05470556e-02  5.71246994e-03  8.56789984e-04
   1.00002346e+00  4.99999945e+00]</t>
         </is>
       </c>
@@ -5750,13 +5775,13 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>[ 4.27011461e-02 -1.45327443e-02  1.00749811e-02  9.80891561e-04
+          <t>[ 4.27011461e-02 -1.45327443e-02  1.00749811e-02  9.80891560e-04
   1.00001630e+00  4.99999992e+00]</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>[ 4.24986892e-02 -1.46746810e-02  1.01355524e-02  9.54345919e-04
+          <t>[ 4.24986892e-02 -1.46746810e-02  1.01355524e-02  9.54345918e-04
   1.00001651e+00  4.99999990e+00]</t>
         </is>
       </c>
@@ -5768,7 +5793,7 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>[ 4.25268908e-02 -1.47876618e-02  1.03349628e-02  9.81340608e-04
+          <t>[ 4.25268908e-02 -1.47876618e-02  1.03349628e-02  9.81340607e-04
   1.00001575e+00  4.99999987e+00]</t>
         </is>
       </c>
@@ -5834,13 +5859,13 @@
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>[ 4.26395418e-02 -1.53664134e-02  1.15679720e-02  1.08177194e-03
+          <t>[ 4.26395418e-02 -1.53664134e-02  1.15679721e-02  1.08177194e-03
   1.00001050e+00  4.99999963e+00]</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>[ 4.24597664e-02 -1.54660530e-02  1.16145516e-02  1.04927162e-03
+          <t>[ 4.24597664e-02 -1.54660530e-02  1.16145517e-02  1.04927162e-03
   1.00001064e+00  4.99999962e+00]</t>
         </is>
       </c>
@@ -5876,7 +5901,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>[ 4.23829458e-02 -1.57550626e-02  1.22515790e-02  1.04936107e-03
+          <t>[ 4.23829458e-02 -1.57550627e-02  1.22515790e-02  1.04936107e-03
   1.00000795e+00  4.99999949e+00]</t>
         </is>
       </c>
@@ -5888,19 +5913,19 @@
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>[ 4.23967810e-02 -1.58233230e-02  1.24503004e-02  1.05459351e-03
+          <t>[ 4.23967810e-02 -1.58233230e-02  1.24503004e-02  1.05459350e-03
   1.00000703e+00  4.99999945e+00]</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
         <is>
-          <t>[ 4.25505460e-02 -1.58197961e-02  1.26208038e-02  1.08627062e-03
+          <t>[ 4.25505460e-02 -1.58197961e-02  1.26208038e-02  1.08627061e-03
   1.00000597e+00  4.99999942e+00]</t>
         </is>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>[ 4.23769796e-02 -1.59108881e-02  1.26679671e-02  1.05266591e-03
+          <t>[ 4.23769796e-02 -1.59108881e-02  1.26679671e-02  1.05266590e-03
   1.00000609e+00  4.99999941e+00]</t>
         </is>
       </c>
@@ -5936,7 +5961,7 @@
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>[ 4.22939868e-02 -1.61627008e-02  1.32948541e-02  1.03757318e-03
+          <t>[ 4.22939868e-02 -1.61627008e-02  1.32948541e-02  1.03757317e-03
   1.00000347e+00  4.99999929e+00]</t>
         </is>
       </c>
@@ -5960,7 +5985,7 @@
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>[ 4.22838529e-02 -1.63012788e-02  1.37028181e-02  1.03373488e-03
+          <t>[ 4.22838528e-02 -1.63012788e-02  1.37028181e-02  1.03373488e-03
   1.00000172e+00  4.99999921e+00]</t>
         </is>
       </c>
@@ -5990,7 +6015,7 @@
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>[ 4.23696813e-02 -1.64415228e-02  1.42550294e-02  1.04603221e-03
+          <t>[ 4.23696813e-02 -1.64415228e-02  1.42550294e-02  1.04603220e-03
   9.99999204e-01  4.99999911e+00]</t>
         </is>
       </c>
@@ -6032,7 +6057,7 @@
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>[ 4.21656924e-02 -1.67321994e-02  1.49206135e-02  9.96646182e-04
+          <t>[ 4.21656924e-02 -1.67321994e-02  1.49206135e-02  9.96646181e-04
   9.99996916e-01  4.99999898e+00]</t>
         </is>
       </c>
@@ -6044,7 +6069,7 @@
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>[ 4.21441986e-02 -1.68036906e-02  1.51263363e-02  9.89212803e-04
+          <t>[ 4.21441986e-02 -1.68036906e-02  1.51263363e-02  9.89212802e-04
   9.99996153e-01  4.99999894e+00]</t>
         </is>
       </c>
@@ -6056,7 +6081,7 @@
       </c>
       <c r="CL10" t="inlineStr">
         <is>
-          <t>[ 4.21169540e-02 -1.68748861e-02  1.53244748e-02  9.80559836e-04
+          <t>[ 4.21169540e-02 -1.68748861e-02  1.53244748e-02  9.80559835e-04
   9.99995448e-01  4.99999890e+00]</t>
         </is>
       </c>
@@ -6074,7 +6099,7 @@
       </c>
       <c r="CO10" t="inlineStr">
         <is>
-          <t>[ 4.22351899e-02 -1.69255127e-02  1.56557407e-02  9.98718983e-04
+          <t>[ 4.22351899e-02 -1.69255127e-02  1.56557407e-02  9.98718982e-04
   9.99993944e-01  4.99999885e+00]</t>
         </is>
       </c>
@@ -6086,25 +6111,25 @@
       </c>
       <c r="CQ10" t="inlineStr">
         <is>
-          <t>[ 4.22243902e-02 -1.69894901e-02  1.58548183e-02  9.92997292e-04
+          <t>[ 4.22243902e-02 -1.69894901e-02  1.58548183e-02  9.92997291e-04
   9.99993233e-01  4.99999881e+00]</t>
         </is>
       </c>
       <c r="CR10" t="inlineStr">
         <is>
-          <t>[ 4.20691040e-02 -1.70670722e-02  1.58998101e-02  9.60892009e-04
+          <t>[ 4.20691040e-02 -1.70670722e-02  1.58998101e-02  9.60892008e-04
   9.99993408e-01  4.99999880e+00]</t>
         </is>
       </c>
       <c r="CS10" t="inlineStr">
         <is>
-          <t>[ 4.22050242e-02 -1.70573747e-02  1.60558403e-02  9.85394187e-04
+          <t>[ 4.22050242e-02 -1.70573747e-02  1.60558403e-02  9.85394186e-04
   9.99992548e-01  4.99999878e+00]</t>
         </is>
       </c>
       <c r="CT10" t="inlineStr">
         <is>
-          <t>[ 4.20479244e-02 -1.71353683e-02  1.60999575e-02  9.52893943e-04
+          <t>[ 4.20479244e-02 -1.71353683e-02  1.60999575e-02  9.52893942e-04
   9.99992737e-01  4.99999877e+00]</t>
         </is>
       </c>
@@ -6116,19 +6141,19 @@
       </c>
       <c r="CV10" t="inlineStr">
         <is>
-          <t>[ 4.20268210e-02 -1.72031062e-02  1.62989360e-02  9.44823080e-04
+          <t>[ 4.20268210e-02 -1.72031062e-02  1.62989360e-02  9.44823079e-04
   9.99992084e-01  4.99999873e+00]</t>
         </is>
       </c>
       <c r="CW10" t="inlineStr">
         <is>
-          <t>[ 4.21386352e-02 -1.71937730e-02  1.64233021e-02  9.64949126e-04
+          <t>[ 4.21386352e-02 -1.71937730e-02  1.64233021e-02  9.64949125e-04
   9.99991403e-01  4.99999871e+00]</t>
         </is>
       </c>
       <c r="CX10" t="inlineStr">
         <is>
-          <t>[ 4.20002093e-02 -1.72707782e-02  1.64905282e-02  9.35684851e-04
+          <t>[ 4.20002093e-02 -1.72707782e-02  1.64905282e-02  9.35684850e-04
   9.99991484e-01  4.99999870e+00]</t>
         </is>
       </c>
@@ -10142,7 +10167,7 @@
       </c>
       <c r="CU17" t="inlineStr">
         <is>
-          <t>[ 3.45037729e-02 -4.86893264e-03  5.64264963e-03 -5.16047206e-03
+          <t>[ 3.45037729e-02 -4.86893263e-03  5.64264963e-03 -5.16047206e-03
   9.99975894e-01  4.99999789e+00]</t>
         </is>
       </c>
@@ -10740,7 +10765,7 @@
       </c>
       <c r="CS18" t="inlineStr">
         <is>
-          <t>[ 3.59541467e-02 -2.87127213e-03  5.26317336e-03 -5.39800866e-03
+          <t>[ 3.59541467e-02 -2.87127213e-03  5.26317337e-03 -5.39800866e-03
   9.99962568e-01  4.99999672e+00]</t>
         </is>
       </c>
@@ -13567,7 +13592,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13586,307 +13611,307 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AV1" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AW1" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AX1" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AY1" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AZ1" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BA1" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BB1" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BC1" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BD1" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BE1" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BF1" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BG1" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BH1" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BI1" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BJ1" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BK1" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BL1" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BM1" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BN1" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BO1" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BP1" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BQ1" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BR1" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BS1" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BT1" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BU1" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="n">
+      <c r="BV1" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="n">
+      <c r="BW1" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="n">
+      <c r="BX1" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="n">
+      <c r="BY1" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="n">
+      <c r="BZ1" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="n">
+      <c r="CA1" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="n">
+      <c r="CB1" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="CC1" s="1" t="n">
+      <c r="CC1" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="CD1" s="1" t="n">
+      <c r="CD1" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="CE1" s="1" t="n">
+      <c r="CE1" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="CF1" s="1" t="n">
+      <c r="CF1" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="CG1" s="1" t="n">
+      <c r="CG1" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="CH1" s="1" t="n">
+      <c r="CH1" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="CI1" s="1" t="n">
+      <c r="CI1" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="CJ1" s="1" t="n">
+      <c r="CJ1" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="CK1" s="1" t="n">
+      <c r="CK1" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="CL1" s="1" t="n">
+      <c r="CL1" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="CM1" s="1" t="n">
+      <c r="CM1" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="CN1" s="1" t="n">
+      <c r="CN1" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="CO1" s="1" t="n">
+      <c r="CO1" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="CP1" s="1" t="n">
+      <c r="CP1" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="CQ1" s="1" t="n">
+      <c r="CQ1" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="CR1" s="1" t="n">
+      <c r="CR1" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="CS1" s="1" t="n">
+      <c r="CS1" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="CT1" s="1" t="n">
+      <c r="CT1" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="CU1" s="1" t="n">
+      <c r="CU1" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="CV1" s="1" t="n">
+      <c r="CV1" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="CW1" s="1" t="n">
+      <c r="CW1" s="2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -14263,193 +14288,193 @@
         <v>2.043372297069755e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.819958015807431e-06</v>
+        <v>1.819958015807439e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>1.62928436886118e-06</v>
+        <v>1.629284368799983e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.467312610771875e-06</v>
+        <v>1.467312610623946e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.25102329583949e-06</v>
+        <v>1.251023295748983e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.120257585000935e-06</v>
+        <v>1.120257584837987e-06</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.008600661405961e-06</v>
+        <v>1.008600661233385e-06</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.136789154727928e-07</v>
+        <v>9.136789152161911e-07</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.878188397594588e-07</v>
+        <v>7.878188395569864e-07</v>
       </c>
       <c r="AE3" t="n">
-        <v>7.111714522027092e-07</v>
+        <v>7.111714520444545e-07</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.456787459137913e-07</v>
+        <v>6.456787458108561e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.899431178438309e-07</v>
+        <v>5.899431177515465e-07</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.166146488396673e-07</v>
+        <v>5.166146487488942e-07</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.715813914345222e-07</v>
+        <v>4.715813913518199e-07</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.330612919197434e-07</v>
+        <v>4.330612918453492e-07</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.002294562685118e-07</v>
+        <v>4.002294562026379e-07</v>
       </c>
       <c r="AL3" t="n">
-        <v>3.574203961177672e-07</v>
+        <v>3.574203960706429e-07</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.308573948860814e-07</v>
+        <v>3.308573948396051e-07</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.080987816554292e-07</v>
+        <v>3.080987816189906e-07</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.886561989981102e-07</v>
+        <v>2.886561989617553e-07</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.635805486635114e-07</v>
+        <v>2.635805486339252e-07</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.478109441711344e-07</v>
+        <v>2.478109441348812e-07</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.342647007978786e-07</v>
+        <v>2.342647007587959e-07</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.226515791948014e-07</v>
+        <v>2.226515791574152e-07</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.078821409515008e-07</v>
+        <v>2.078821409250422e-07</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.984221263465575e-07</v>
+        <v>1.984221263224927e-07</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.902625198161701e-07</v>
+        <v>1.902625197958933e-07</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.832299868166109e-07</v>
+        <v>1.832299868020321e-07</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.744522220155529e-07</v>
+        <v>1.744522220037955e-07</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.686829052531229e-07</v>
+        <v>1.686829052429057e-07</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1.636750856156621e-07</v>
+        <v>1.636750856080566e-07</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.593246174665972e-07</v>
+        <v>1.593246174575907e-07</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.555663473580573e-07</v>
+        <v>1.55566347348728e-07</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.504237418962203e-07</v>
+        <v>1.504237418853431e-07</v>
       </c>
       <c r="BD3" t="n">
-        <v>1.472621704757372e-07</v>
+        <v>1.472621704681626e-07</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.444842911493749e-07</v>
+        <v>1.444842911451938e-07</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.420543900871475e-07</v>
+        <v>1.420543900833829e-07</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.388798969562255e-07</v>
+        <v>1.388798969548178e-07</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.36801882435213e-07</v>
+        <v>1.368018824332508e-07</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.349481768770739e-07</v>
+        <v>1.349481768735784e-07</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.332996963789533e-07</v>
+        <v>1.332996963777404e-07</v>
       </c>
       <c r="BK3" t="n">
-        <v>1.318254092343899e-07</v>
+        <v>1.318254092342506e-07</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.298321579899203e-07</v>
+        <v>1.298321579909161e-07</v>
       </c>
       <c r="BM3" t="n">
-        <v>1.285236207851812e-07</v>
+        <v>1.285236207842145e-07</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.273368016643488e-07</v>
+        <v>1.273368016641918e-07</v>
       </c>
       <c r="BO3" t="n">
-        <v>1.262521390133023e-07</v>
+        <v>1.262521390133639e-07</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.252647616911935e-07</v>
+        <v>1.252647616919374e-07</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.239320591656347e-07</v>
+        <v>1.239320591684012e-07</v>
       </c>
       <c r="BR3" t="n">
-        <v>1.232878885986522e-07</v>
+        <v>1.232878886019391e-07</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.22041255555289e-07</v>
+        <v>1.220412555609416e-07</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.212411088593073e-07</v>
+        <v>1.212411088643739e-07</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.204875131218208e-07</v>
+        <v>1.204875131267592e-07</v>
       </c>
       <c r="BV3" t="n">
-        <v>1.197806637817129e-07</v>
+        <v>1.197806637851037e-07</v>
       </c>
       <c r="BW3" t="n">
-        <v>1.191112164583576e-07</v>
+        <v>1.191112164621795e-07</v>
       </c>
       <c r="BX3" t="n">
-        <v>1.184814216640839e-07</v>
+        <v>1.184814216674106e-07</v>
       </c>
       <c r="BY3" t="n">
-        <v>1.175561506096957e-07</v>
+        <v>1.175561506123438e-07</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1.169341578075591e-07</v>
+        <v>1.169341578098526e-07</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.1633470461407e-07</v>
+        <v>1.163347046152321e-07</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.157600784415519e-07</v>
+        <v>1.15760078442137e-07</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.152041825076254e-07</v>
+        <v>1.152041825086516e-07</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.146704837329113e-07</v>
+        <v>1.146704837333758e-07</v>
       </c>
       <c r="CE3" t="n">
-        <v>1.14152989650944e-07</v>
+        <v>1.141529896520726e-07</v>
       </c>
       <c r="CF3" t="n">
-        <v>1.133985052261546e-07</v>
+        <v>1.133985052296691e-07</v>
       </c>
       <c r="CG3" t="n">
-        <v>1.130314939050557e-07</v>
+        <v>1.130314939089405e-07</v>
       </c>
       <c r="CH3" t="inlineStr"/>
       <c r="CI3" t="inlineStr"/>
@@ -14746,31 +14771,31 @@
         <v>2.592439898703303e-06</v>
       </c>
       <c r="CO4" t="n">
-        <v>2.571679192465237e-06</v>
+        <v>2.571679192465058e-06</v>
       </c>
       <c r="CP4" t="n">
-        <v>2.557314816764223e-06</v>
+        <v>2.557314816765211e-06</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2.543113755007577e-06</v>
+        <v>2.543113755031556e-06</v>
       </c>
       <c r="CR4" t="n">
-        <v>2.529104742066255e-06</v>
+        <v>2.529104742098663e-06</v>
       </c>
       <c r="CS4" t="n">
-        <v>2.515276223061984e-06</v>
+        <v>2.515276223108539e-06</v>
       </c>
       <c r="CT4" t="n">
-        <v>2.501661651754614e-06</v>
+        <v>2.501661651781048e-06</v>
       </c>
       <c r="CU4" t="n">
-        <v>2.488249667582549e-06</v>
+        <v>2.488249667638783e-06</v>
       </c>
       <c r="CV4" t="n">
-        <v>2.475079253395739e-06</v>
+        <v>2.47507925351463e-06</v>
       </c>
       <c r="CW4" t="n">
-        <v>2.455796057145025e-06</v>
+        <v>2.455796057168631e-06</v>
       </c>
     </row>
     <row r="5">
@@ -14835,247 +14860,247 @@
         <v>3.826173115161903e-06</v>
       </c>
       <c r="U5" t="n">
-        <v>3.587292177806571e-06</v>
+        <v>3.587292177806583e-06</v>
       </c>
       <c r="V5" t="n">
-        <v>3.256542311176731e-06</v>
+        <v>3.256542311149647e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>3.061478753126286e-06</v>
+        <v>3.061478753166804e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>2.894107479033593e-06</v>
+        <v>2.894107479076271e-06</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.75103451013578e-06</v>
+        <v>2.751034510170837e-06</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.556181112062557e-06</v>
+        <v>2.556181112114292e-06</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.438811099435204e-06</v>
+        <v>2.438811099432855e-06</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.337622332293394e-06</v>
+        <v>2.337622332315692e-06</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.250618193400563e-06</v>
+        <v>2.25061819327147e-06</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.13473901393053e-06</v>
+        <v>2.134739013912183e-06</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.062825777384299e-06</v>
+        <v>2.062825777358462e-06</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.000376881682212e-06</v>
+        <v>2.000376881640044e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.946215225591838e-06</v>
+        <v>1.946215225493084e-06</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.876257039686548e-06</v>
+        <v>1.876257039742315e-06</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.830969367156566e-06</v>
+        <v>1.830969367158018e-06</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.791226102725816e-06</v>
+        <v>1.791226102732645e-06</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.75633137182782e-06</v>
+        <v>1.756331371874196e-06</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.725758523485631e-06</v>
+        <v>1.725758523550347e-06</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.683436669881777e-06</v>
+        <v>1.683436670007135e-06</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.657030030308445e-06</v>
+        <v>1.657030030402132e-06</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.633466907421455e-06</v>
+        <v>1.633466907550935e-06</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.612446314682696e-06</v>
+        <v>1.612446314832452e-06</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.585348668822282e-06</v>
+        <v>1.585348668985273e-06</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.572039184750442e-06</v>
+        <v>1.572039184891388e-06</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.547412570458181e-06</v>
+        <v>1.54741257058801e-06</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.531930434147826e-06</v>
+        <v>1.531930434283574e-06</v>
       </c>
       <c r="AU5" t="n">
-        <v>1.517734545519654e-06</v>
+        <v>1.517734545662979e-06</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.504706274489474e-06</v>
+        <v>1.504706274612839e-06</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.492702542664869e-06</v>
+        <v>1.492702542790364e-06</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.475915416086515e-06</v>
+        <v>1.475915416221021e-06</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.464622354720733e-06</v>
+        <v>1.464622354871604e-06</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1.454029747494308e-06</v>
+        <v>1.454029747626193e-06</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.444049741227248e-06</v>
+        <v>1.444049741360766e-06</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.434642416210966e-06</v>
+        <v>1.434642416348815e-06</v>
       </c>
       <c r="BC5" t="n">
-        <v>1.425738740423765e-06</v>
+        <v>1.425738740567805e-06</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.413307394241548e-06</v>
+        <v>1.413307394363801e-06</v>
       </c>
       <c r="BE5" t="n">
-        <v>1.407035867231786e-06</v>
+        <v>1.407035867355367e-06</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.394991818334185e-06</v>
+        <v>1.394991818457117e-06</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.386849247723637e-06</v>
+        <v>1.386849247853832e-06</v>
       </c>
       <c r="BH5" t="n">
-        <v>1.378995121066703e-06</v>
+        <v>1.378995121211316e-06</v>
       </c>
       <c r="BI5" t="n">
-        <v>1.371393989679216e-06</v>
+        <v>1.371393989797891e-06</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1.364046022939211e-06</v>
+        <v>1.364046023046959e-06</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.35692160033145e-06</v>
+        <v>1.356921600424756e-06</v>
       </c>
       <c r="BL5" t="n">
-        <v>1.350029696557191e-06</v>
+        <v>1.350029696714055e-06</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.340011123027504e-06</v>
+        <v>1.340011123174895e-06</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.335006513157544e-06</v>
+        <v>1.335006513289856e-06</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.325077768199482e-06</v>
+        <v>1.325077768313497e-06</v>
       </c>
       <c r="BP5" t="n">
-        <v>1.318264896283139e-06</v>
+        <v>1.318264896413838e-06</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.311578655666981e-06</v>
+        <v>1.311578655776744e-06</v>
       </c>
       <c r="BR5" t="n">
-        <v>1.305030060636353e-06</v>
+        <v>1.305030060722072e-06</v>
       </c>
       <c r="BS5" t="n">
-        <v>1.298602937460797e-06</v>
+        <v>1.298602937548247e-06</v>
       </c>
       <c r="BT5" t="n">
-        <v>1.292312797048841e-06</v>
+        <v>1.292312797163157e-06</v>
       </c>
       <c r="BU5" t="n">
-        <v>1.286144546349448e-06</v>
+        <v>1.286144546437436e-06</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.280118207279652e-06</v>
+        <v>1.280118207378894e-06</v>
       </c>
       <c r="BW5" t="n">
-        <v>1.271123496380223e-06</v>
+        <v>1.27112349648415e-06</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.266761905227893e-06</v>
+        <v>1.266761905358706e-06</v>
       </c>
       <c r="BY5" t="n">
-        <v>1.257767124377393e-06</v>
+        <v>1.257767124475296e-06</v>
       </c>
       <c r="BZ5" t="n">
-        <v>1.251617070153279e-06</v>
+        <v>1.251617070247201e-06</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.245547353183344e-06</v>
+        <v>1.245547353282444e-06</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.239573451580174e-06</v>
+        <v>1.23957345168726e-06</v>
       </c>
       <c r="CC5" t="n">
-        <v>1.233684124389885e-06</v>
+        <v>1.233684124486397e-06</v>
       </c>
       <c r="CD5" t="n">
-        <v>1.227897842437584e-06</v>
+        <v>1.22789784254458e-06</v>
       </c>
       <c r="CE5" t="n">
-        <v>1.222203250512651e-06</v>
+        <v>1.222203250622051e-06</v>
       </c>
       <c r="CF5" t="n">
-        <v>1.216622127519676e-06</v>
+        <v>1.216622127643854e-06</v>
       </c>
       <c r="CG5" t="n">
-        <v>1.208323331025994e-06</v>
+        <v>1.208323331130763e-06</v>
       </c>
       <c r="CH5" t="n">
-        <v>1.204219782350787e-06</v>
+        <v>1.204219782477152e-06</v>
       </c>
       <c r="CI5" t="n">
-        <v>1.195901851131804e-06</v>
+        <v>1.195901851220937e-06</v>
       </c>
       <c r="CJ5" t="n">
-        <v>1.190161894901942e-06</v>
+        <v>1.190161894981655e-06</v>
       </c>
       <c r="CK5" t="n">
-        <v>1.18448727190952e-06</v>
+        <v>1.184487271995329e-06</v>
       </c>
       <c r="CL5" t="n">
-        <v>1.178893892787241e-06</v>
+        <v>1.178893892892217e-06</v>
       </c>
       <c r="CM5" t="n">
-        <v>1.173371910307709e-06</v>
+        <v>1.17337191044203e-06</v>
       </c>
       <c r="CN5" t="n">
-        <v>1.167939744900926e-06</v>
+        <v>1.167939745029991e-06</v>
       </c>
       <c r="CO5" t="n">
-        <v>1.162587122164744e-06</v>
+        <v>1.16258712230086e-06</v>
       </c>
       <c r="CP5" t="n">
-        <v>1.157335341114147e-06</v>
+        <v>1.15733534123521e-06</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1.149620164190474e-06</v>
+        <v>1.149620164289065e-06</v>
       </c>
       <c r="CR5" t="n">
-        <v>1.145680369756042e-06</v>
+        <v>1.145680369882363e-06</v>
       </c>
       <c r="CS5" t="n">
-        <v>1.137944162892256e-06</v>
+        <v>1.137944162981296e-06</v>
       </c>
       <c r="CT5" t="n">
-        <v>1.134175038898077e-06</v>
+        <v>1.134175039011789e-06</v>
       </c>
       <c r="CU5" t="n">
-        <v>1.126414670785854e-06</v>
+        <v>1.126414670876149e-06</v>
       </c>
       <c r="CV5" t="n">
-        <v>1.121085343586656e-06</v>
+        <v>1.121085343689744e-06</v>
       </c>
       <c r="CW5" t="n">
-        <v>1.115814420106003e-06</v>
+        <v>1.115814420232883e-06</v>
       </c>
     </row>
     <row r="6">
@@ -16402,205 +16427,205 @@
         <v>1.760472543528979e-05</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.750290908254256e-05</v>
+        <v>1.750290908254051e-05</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.740441867133255e-05</v>
+        <v>1.740441867180683e-05</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.730908054191765e-05</v>
+        <v>1.730908054244802e-05</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.721665588606287e-05</v>
+        <v>1.721665588698419e-05</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.71270668690673e-05</v>
+        <v>1.712706687012759e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.704014993302964e-05</v>
+        <v>1.704014993426626e-05</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.691410372643501e-05</v>
+        <v>1.691410372713934e-05</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.685064229551719e-05</v>
+        <v>1.685064229634632e-05</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.672561956959656e-05</v>
+        <v>1.672561956997802e-05</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.663945659623704e-05</v>
+        <v>1.663945659706208e-05</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.655494606249511e-05</v>
+        <v>1.655494606378945e-05</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.647200854227125e-05</v>
+        <v>1.647200854378105e-05</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.639068375653125e-05</v>
+        <v>1.639068375801137e-05</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.631092114650177e-05</v>
+        <v>1.631092114780061e-05</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.623279985478905e-05</v>
+        <v>1.623279985606655e-05</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.615629579598903e-05</v>
+        <v>1.615629579772383e-05</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.604281282665015e-05</v>
+        <v>1.604281282697847e-05</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.598698163351554e-05</v>
+        <v>1.598698163468446e-05</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.587348230187451e-05</v>
+        <v>1.587348230210241e-05</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.579539908782808e-05</v>
+        <v>1.57953990881592e-05</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.571842060210799e-05</v>
+        <v>1.571842060240237e-05</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.564252797730239e-05</v>
+        <v>1.564252797735797e-05</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.55678082202505e-05</v>
+        <v>1.556780822028978e-05</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.549425482272499e-05</v>
+        <v>1.549425482295265e-05</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.5421979127744e-05</v>
+        <v>1.542197912777904e-05</v>
       </c>
       <c r="BH10" t="n">
-        <v>1.535098818396889e-05</v>
+        <v>1.535098818421944e-05</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.524621041805374e-05</v>
+        <v>1.524621041736539e-05</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1.519354169812018e-05</v>
+        <v>1.519354169813466e-05</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.50885298633266e-05</v>
+        <v>1.508852986276171e-05</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.501557106161799e-05</v>
+        <v>1.501557106125745e-05</v>
       </c>
       <c r="BM10" t="n">
-        <v>1.494353326471e-05</v>
+        <v>1.49435332644021e-05</v>
       </c>
       <c r="BN10" t="n">
-        <v>1.487241099493876e-05</v>
+        <v>1.487241099508255e-05</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.480229788985122e-05</v>
+        <v>1.480229789049167e-05</v>
       </c>
       <c r="BP10" t="n">
-        <v>1.473319614271584e-05</v>
+        <v>1.473319614371193e-05</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1.466521894083044e-05</v>
+        <v>1.466521894198025e-05</v>
       </c>
       <c r="BR10" t="n">
-        <v>1.459837806217088e-05</v>
+        <v>1.459837806374793e-05</v>
       </c>
       <c r="BS10" t="n">
-        <v>1.45009558266661e-05</v>
+        <v>1.450095582738869e-05</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.445035621088757e-05</v>
+        <v>1.445035621320156e-05</v>
       </c>
       <c r="BU10" t="n">
-        <v>1.435268113484236e-05</v>
+        <v>1.435268113561004e-05</v>
       </c>
       <c r="BV10" t="n">
-        <v>1.430422707986498e-05</v>
+        <v>1.430422708184303e-05</v>
       </c>
       <c r="BW10" t="n">
-        <v>1.420626044441963e-05</v>
+        <v>1.420626044504644e-05</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.413849114156489e-05</v>
+        <v>1.413849114240726e-05</v>
       </c>
       <c r="BY10" t="n">
-        <v>1.407155482320299e-05</v>
+        <v>1.407155482393299e-05</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.40054488487814e-05</v>
+        <v>1.400544885013676e-05</v>
       </c>
       <c r="CA10" t="n">
-        <v>1.394026590400508e-05</v>
+        <v>1.394026590531426e-05</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.387600943574464e-05</v>
+        <v>1.387600943695582e-05</v>
       </c>
       <c r="CC10" t="n">
-        <v>1.381278981567006e-05</v>
+        <v>1.381278981703634e-05</v>
       </c>
       <c r="CD10" t="n">
-        <v>1.375061859150779e-05</v>
+        <v>1.375061859285861e-05</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.365962486873405e-05</v>
+        <v>1.365962486926451e-05</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.361280170568027e-05</v>
+        <v>1.361280170684675e-05</v>
       </c>
       <c r="CG10" t="n">
-        <v>1.352154974875215e-05</v>
+        <v>1.352154974903654e-05</v>
       </c>
       <c r="CH10" t="n">
-        <v>1.347671011004428e-05</v>
+        <v>1.347671011177664e-05</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.338516785167866e-05</v>
+        <v>1.338516785172701e-05</v>
       </c>
       <c r="CJ10" t="n">
-        <v>1.332205600947287e-05</v>
+        <v>1.332205600908872e-05</v>
       </c>
       <c r="CK10" t="n">
-        <v>1.325971848092461e-05</v>
+        <v>1.325971848037518e-05</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.319815218519836e-05</v>
+        <v>1.319815218470496e-05</v>
       </c>
       <c r="CM10" t="n">
-        <v>1.313744613800407e-05</v>
+        <v>1.313744613743378e-05</v>
       </c>
       <c r="CN10" t="n">
-        <v>1.307760264252802e-05</v>
+        <v>1.307760264167062e-05</v>
       </c>
       <c r="CO10" t="n">
-        <v>1.301872731954116e-05</v>
+        <v>1.301872731903086e-05</v>
       </c>
       <c r="CP10" t="n">
-        <v>1.296082977092448e-05</v>
+        <v>1.296082977048991e-05</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1.287579106002984e-05</v>
+        <v>1.287579105901047e-05</v>
       </c>
       <c r="CR10" t="n">
-        <v>1.283239801457627e-05</v>
+        <v>1.283239801413016e-05</v>
       </c>
       <c r="CS10" t="n">
-        <v>1.274710987023495e-05</v>
+        <v>1.274710986949622e-05</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.270556740592543e-05</v>
+        <v>1.270556740615237e-05</v>
       </c>
       <c r="CU10" t="n">
-        <v>1.262000056634289e-05</v>
+        <v>1.262000056605878e-05</v>
       </c>
       <c r="CV10" t="n">
-        <v>1.256119564926749e-05</v>
+        <v>1.256119564897739e-05</v>
       </c>
       <c r="CW10" t="n">
-        <v>1.250311452879052e-05</v>
+        <v>1.250311452874344e-05</v>
       </c>
     </row>
     <row r="11">
@@ -18581,91 +18606,91 @@
         <v>8.466587563472648e-07</v>
       </c>
       <c r="BU17" t="n">
-        <v>8.44523055034107e-07</v>
+        <v>8.445230550333857e-07</v>
       </c>
       <c r="BV17" t="n">
-        <v>8.434588849043719e-07</v>
+        <v>8.434588849038259e-07</v>
       </c>
       <c r="BW17" t="n">
-        <v>8.413256513771191e-07</v>
+        <v>8.41325651376397e-07</v>
       </c>
       <c r="BX17" t="n">
-        <v>8.398541026559687e-07</v>
+        <v>8.398541026589651e-07</v>
       </c>
       <c r="BY17" t="n">
-        <v>8.384007364471021e-07</v>
+        <v>8.384007364435556e-07</v>
       </c>
       <c r="BZ17" t="n">
-        <v>8.369723735353952e-07</v>
+        <v>8.369723735334978e-07</v>
       </c>
       <c r="CA17" t="n">
-        <v>8.355627479936744e-07</v>
+        <v>8.355627479936058e-07</v>
       </c>
       <c r="CB17" t="n">
-        <v>8.341797963623178e-07</v>
+        <v>8.34179796365566e-07</v>
       </c>
       <c r="CC17" t="n">
-        <v>8.328168476807294e-07</v>
+        <v>8.328168476897593e-07</v>
       </c>
       <c r="CD17" t="n">
-        <v>8.31483063997767e-07</v>
+        <v>8.31483064004651e-07</v>
       </c>
       <c r="CE17" t="n">
-        <v>8.295180452460935e-07</v>
+        <v>8.295180452572534e-07</v>
       </c>
       <c r="CF17" t="n">
-        <v>8.285231424599419e-07</v>
+        <v>8.285231424688011e-07</v>
       </c>
       <c r="CG17" t="n">
-        <v>8.265544121411842e-07</v>
+        <v>8.265544121434955e-07</v>
       </c>
       <c r="CH17" t="n">
-        <v>8.251846541976311e-07</v>
+        <v>8.251846542066025e-07</v>
       </c>
       <c r="CI17" t="n">
-        <v>8.238288877772975e-07</v>
+        <v>8.238288877906756e-07</v>
       </c>
       <c r="CJ17" t="n">
-        <v>8.224939866306789e-07</v>
+        <v>8.224939866409447e-07</v>
       </c>
       <c r="CK17" t="n">
-        <v>8.211742501903335e-07</v>
+        <v>8.211742502120704e-07</v>
       </c>
       <c r="CL17" t="n">
-        <v>8.198775136542465e-07</v>
+        <v>8.198775136835389e-07</v>
       </c>
       <c r="CM17" t="n">
-        <v>8.185975947329163e-07</v>
+        <v>8.18597594770065e-07</v>
       </c>
       <c r="CN17" t="n">
-        <v>8.173434164002316e-07</v>
+        <v>8.173434164416954e-07</v>
       </c>
       <c r="CO17" t="n">
-        <v>8.155175384282403e-07</v>
+        <v>8.155175384547671e-07</v>
       </c>
       <c r="CP17" t="n">
-        <v>8.145629460572005e-07</v>
+        <v>8.145629461094233e-07</v>
       </c>
       <c r="CQ17" t="n">
-        <v>8.127324870857573e-07</v>
+        <v>8.1273248711166e-07</v>
       </c>
       <c r="CR17" t="n">
-        <v>8.118179288523464e-07</v>
+        <v>8.118179289121986e-07</v>
       </c>
       <c r="CS17" t="n">
-        <v>8.09982127444982e-07</v>
+        <v>8.099821274555884e-07</v>
       </c>
       <c r="CT17" t="n">
-        <v>8.087102169136161e-07</v>
+        <v>8.087102169405192e-07</v>
       </c>
       <c r="CU17" t="n">
-        <v>8.074505191553721e-07</v>
+        <v>8.074505191882198e-07</v>
       </c>
       <c r="CV17" t="n">
-        <v>8.062097724069626e-07</v>
+        <v>8.062097724563905e-07</v>
       </c>
       <c r="CW17" t="n">
-        <v>8.049825194174123e-07</v>
+        <v>8.049825194727594e-07</v>
       </c>
     </row>
     <row r="18">
@@ -18907,70 +18932,70 @@
         <v>1.539463287471198e-06</v>
       </c>
       <c r="CB18" t="n">
-        <v>1.53544145846222e-06</v>
+        <v>1.535441458462178e-06</v>
       </c>
       <c r="CC18" t="n">
-        <v>1.531479637696023e-06</v>
+        <v>1.531479637685769e-06</v>
       </c>
       <c r="CD18" t="n">
-        <v>1.527595308305088e-06</v>
+        <v>1.527595308281734e-06</v>
       </c>
       <c r="CE18" t="n">
-        <v>1.521866021650028e-06</v>
+        <v>1.521866021622137e-06</v>
       </c>
       <c r="CF18" t="n">
-        <v>1.51897130089799e-06</v>
+        <v>1.518971300823268e-06</v>
       </c>
       <c r="CG18" t="n">
-        <v>1.513228165357291e-06</v>
+        <v>1.513228165331294e-06</v>
       </c>
       <c r="CH18" t="n">
-        <v>1.509232184707578e-06</v>
+        <v>1.509232184663135e-06</v>
       </c>
       <c r="CI18" t="n">
-        <v>1.505279454367503e-06</v>
+        <v>1.505279454283978e-06</v>
       </c>
       <c r="CJ18" t="n">
-        <v>1.501382766623193e-06</v>
+        <v>1.501382766556111e-06</v>
       </c>
       <c r="CK18" t="n">
-        <v>1.497533538301047e-06</v>
+        <v>1.497533538192202e-06</v>
       </c>
       <c r="CL18" t="n">
-        <v>1.49374645932979e-06</v>
+        <v>1.493746459228926e-06</v>
       </c>
       <c r="CM18" t="n">
-        <v>1.490012408524503e-06</v>
+        <v>1.49001240842442e-06</v>
       </c>
       <c r="CN18" t="n">
-        <v>1.486348255003598e-06</v>
+        <v>1.486348254922368e-06</v>
       </c>
       <c r="CO18" t="n">
-        <v>1.481017123150048e-06</v>
+        <v>1.481017123101468e-06</v>
       </c>
       <c r="CP18" t="n">
-        <v>1.478228591990919e-06</v>
+        <v>1.478228591885203e-06</v>
       </c>
       <c r="CQ18" t="n">
-        <v>1.472883618595433e-06</v>
+        <v>1.472883618570107e-06</v>
       </c>
       <c r="CR18" t="n">
-        <v>1.470211334196877e-06</v>
+        <v>1.470211334141838e-06</v>
       </c>
       <c r="CS18" t="n">
-        <v>1.464850506176733e-06</v>
+        <v>1.464850506225035e-06</v>
       </c>
       <c r="CT18" t="n">
-        <v>1.461133717744821e-06</v>
+        <v>1.461133717772389e-06</v>
       </c>
       <c r="CU18" t="n">
-        <v>1.457456054200527e-06</v>
+        <v>1.457456054200116e-06</v>
       </c>
       <c r="CV18" t="n">
-        <v>1.453829987553468e-06</v>
+        <v>1.453829987584562e-06</v>
       </c>
       <c r="CW18" t="n">
-        <v>1.450247258881798e-06</v>
+        <v>1.450247258897813e-06</v>
       </c>
     </row>
     <row r="19">
